--- a/src/main/resources/files/test2.xlsx
+++ b/src/main/resources/files/test2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>姓名</t>
   </si>
@@ -20,10 +20,13 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>wz</t>
+    <t>1</t>
   </si>
   <si>
-    <t>22</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -76,11 +79,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="5120"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="30720"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -95,7 +98,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>26.0</v>
+        <v>2323.0</v>
       </c>
     </row>
     <row r="3">
@@ -103,7 +106,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5.0</v>
+        <v>2323.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2323.0</v>
       </c>
     </row>
   </sheetData>
